--- a/导出logistics回归-3mer.xlsx
+++ b/导出logistics回归-3mer.xlsx
@@ -374,12 +374,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Average intensity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Predicted probablity</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Average intensity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -395,10 +395,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9458701184144258</v>
+        <v>2.5858</v>
       </c>
       <c r="C2" t="n">
-        <v>2.5858</v>
+        <v>0.9251977277452353</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -413,10 +413,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9868216185448418</v>
+        <v>3.6032</v>
       </c>
       <c r="C3" t="n">
-        <v>3.6032</v>
+        <v>0.9854523846096551</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -431,10 +431,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9922184407471941</v>
+        <v>3.9188</v>
       </c>
       <c r="C4" t="n">
-        <v>3.9188</v>
+        <v>0.991536835986723</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -449,10 +449,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9980151474153672</v>
+        <v>3.5888</v>
       </c>
       <c r="C5" t="n">
-        <v>3.5888</v>
+        <v>0.9979463001048405</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9761591388233442</v>
+        <v>2.0068</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0068</v>
+        <v>0.9692228555743381</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9898129457367286</v>
+        <v>2.5406</v>
       </c>
       <c r="C7" t="n">
-        <v>2.5406</v>
+        <v>0.9877853776714249</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9203316665437891</v>
+        <v>2.2324</v>
       </c>
       <c r="C8" t="n">
-        <v>2.2324</v>
+        <v>0.9012819698391142</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.970697371083448</v>
+        <v>2.733</v>
       </c>
       <c r="C9" t="n">
-        <v>2.733</v>
+        <v>0.9599949442915701</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8449178361965599</v>
+        <v>0.7218</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7218</v>
+        <v>0.7914781249886105</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8191418215416506</v>
+        <v>0.8754000000000002</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8754000000000002</v>
+        <v>0.7463524564373618</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9791993055968323</v>
+        <v>1.4844</v>
       </c>
       <c r="C12" t="n">
-        <v>1.4844</v>
+        <v>0.9773811264192092</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8704967394074626</v>
+        <v>0.8714000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8714000000000001</v>
+        <v>0.815447850632147</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9532742890262605</v>
+        <v>2.399</v>
       </c>
       <c r="C14" t="n">
-        <v>2.399</v>
+        <v>0.9448413546833633</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9898914514608366</v>
+        <v>4.285200000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>4.285200000000001</v>
+        <v>0.9876843991666402</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9995362446212351</v>
+        <v>4.2482</v>
       </c>
       <c r="C16" t="n">
-        <v>4.2482</v>
+        <v>0.9995301616129726</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9991759467838587</v>
+        <v>2.9308</v>
       </c>
       <c r="C17" t="n">
-        <v>2.9308</v>
+        <v>0.9991661480593342</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9949047438921559</v>
+        <v>2.1514</v>
       </c>
       <c r="C18" t="n">
-        <v>2.1514</v>
+        <v>0.9946694609613739</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9995782335095034</v>
+        <v>3.3122</v>
       </c>
       <c r="C19" t="n">
-        <v>3.3122</v>
+        <v>0.9995765327921223</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2028686280639324</v>
+        <v>0.9742000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9742000000000001</v>
+        <v>0.2589249920938366</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01370764485796894</v>
+        <v>1.3084</v>
       </c>
       <c r="C21" t="n">
-        <v>1.3084</v>
+        <v>0.01462322783094386</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1608782027211009</v>
+        <v>0.6546</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6546</v>
+        <v>0.2054866730567147</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.06263640729085376</v>
+        <v>2.3516</v>
       </c>
       <c r="C23" t="n">
-        <v>2.3516</v>
+        <v>0.128173928733274</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.06693898884597066</v>
+        <v>0.05520000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.05520000000000001</v>
+        <v>0.08423604721311768</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2629384418244298</v>
+        <v>0.9913999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9913999999999999</v>
+        <v>0.3670547147926103</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
